--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gip-Gipr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gip-Gipr.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1309466666666667</v>
+        <v>0.4511956666666667</v>
       </c>
       <c r="N2">
-        <v>0.39284</v>
+        <v>1.353587</v>
       </c>
       <c r="O2">
-        <v>0.6794412130457418</v>
+        <v>0.7507457057443468</v>
       </c>
       <c r="P2">
-        <v>0.6794412130457417</v>
+        <v>0.750745705744347</v>
       </c>
       <c r="Q2">
-        <v>0.04254326253333334</v>
+        <v>0.1465889601433334</v>
       </c>
       <c r="R2">
-        <v>0.3828893628</v>
+        <v>1.31930064129</v>
       </c>
       <c r="S2">
-        <v>0.6794412130457418</v>
+        <v>0.7507457057443468</v>
       </c>
       <c r="T2">
-        <v>0.6794412130457417</v>
+        <v>0.750745705744347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06178033333333333</v>
+        <v>0.149801</v>
       </c>
       <c r="N3">
-        <v>0.185341</v>
+        <v>0.449403</v>
       </c>
       <c r="O3">
-        <v>0.3205587869542583</v>
+        <v>0.2492542942556531</v>
       </c>
       <c r="P3">
-        <v>0.3205587869542583</v>
+        <v>0.2492542942556531</v>
       </c>
       <c r="Q3">
-        <v>0.02007181249666667</v>
+        <v>0.04866884689</v>
       </c>
       <c r="R3">
-        <v>0.18064631247</v>
+        <v>0.43801962201</v>
       </c>
       <c r="S3">
-        <v>0.3205587869542583</v>
+        <v>0.2492542942556531</v>
       </c>
       <c r="T3">
-        <v>0.3205587869542583</v>
+        <v>0.2492542942556531</v>
       </c>
     </row>
   </sheetData>
